--- a/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/CONTURI_TREZ_PROIECT.xlsx
+++ b/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/CONTURI_TREZ_PROIECT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Prefinantare</t>
   </si>
@@ -28,16 +28,19 @@
     <t>RO68TREZ421509901X010687</t>
   </si>
   <si>
-    <t>RO32TREZ421509905X010689</t>
-  </si>
-  <si>
     <t>RO32TREZ421509903X010688</t>
+  </si>
+  <si>
+    <t>RO93 TREZ 4215 0990 5X01 0689</t>
+  </si>
+  <si>
+    <t>RO93TREZ421509905X010689</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,6 +165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -197,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,19 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.86328125" customWidth="1"/>
+    <col min="4" max="4" width="78.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -393,20 +431,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
